--- a/flashcards/Memcode - KS Privatrecht I - 1. Test (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Privatrecht I - 1. Test (JKU, Austria).xlsx
@@ -19,6 +19,48 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Was ist die Beeinflussung wider Treu und Glauben?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gelingt es jemandem, dem die Bedingung zum &lt;strong&gt;Nachteil &lt;/strong&gt;gereicht, sie zu &lt;strong&gt;vereiteln&lt;/strong&gt;, gilt die Bedingung als &lt;strong&gt;eingetreten&lt;/strong&gt;. &lt;/li&gt;&lt;li&gt;Gelingt es jemandem, dem die Bedingung zum &lt;strong&gt;Vorteil &lt;/strong&gt;gereicht, die Bedingung wider Treu und Glauben &lt;strong&gt;herbeizuführen&lt;/strong&gt;, gilt die Bedingung als &lt;strong&gt;ausgefallen&lt;/strong&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Beispiel: X verspricht Y ihm sein Auto zu schenken, wenn die nächste Reperatur ansteht. Y sapotiert das Auto von X. Die Bedingung wurde wider Treu und Glauben herbeigeführt und gilt daher als ausgefallen und die Schenkung tritt nicht in kraft.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann ist eine Bedingung unmöglich?&lt;/p&gt;&lt;p&gt;Wie wird &lt;strong&gt;unmöglich &lt;/strong&gt;definiert?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eine Bedingung ist &lt;strong&gt;unmöglich&lt;/strong&gt;, wenn sie aus &lt;strong&gt;tatsächlichen&lt;/strong&gt; oder &lt;strong&gt;rechtlichen Gründen &lt;/strong&gt;nicht eintreten kann.&lt;/li&gt;&lt;li&gt;Unmöglich ist, was &lt;strong&gt;objektiv gesehen&lt;/strong&gt; und &lt;strong&gt;nicht &lt;/strong&gt;nur &lt;strong&gt;vorrübergehend &lt;/strong&gt;sondern &lt;strong&gt;dauerhaft&lt;/strong&gt; &lt;strong&gt;unmöglich&lt;/strong&gt; ist und niemand erfüllen kann.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Richterrecht: Was ist Case Law?&lt;/p&gt;&lt;p&gt;Wie verhält es sich in den USA und in Österreich?&lt;/p&gt;&lt;p&gt;Was ist die Rechtsgrundlage in Ö? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Entscheidung eines Falles schaft für zukünftige Fälle &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;gültiges Recht&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;USA: Kommt oft zur Anwendung.&lt;/li&gt;&lt;li&gt;Ö: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Richterrecht ist &lt;strong&gt;keine Rechts&lt;/strong&gt;(entstehungs)&lt;strong&gt;quelle&lt;/strong&gt; (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/12" rel="noopener noreferrer" target="_blank"&gt;§ 12 ABGB&lt;/a&gt;), Gerichte wenden Recht an und schaffen es nicht.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Was ist die Wissenszurechnung bei juristischen Personen?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Wofür ist sie relevant?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Wissen der &lt;strong&gt;handelnden &lt;/strong&gt;Person wird an die &lt;strong&gt;vertretene juristische &lt;/strong&gt;Person zugerechnet.&lt;/p&gt;&lt;p&gt;Relevant für &lt;strong&gt;Irrtumsanfechtung &lt;/strong&gt;( § 871 ABGB ) und &lt;strong&gt;gutgläubigen Erwerb&lt;/strong&gt; von Sachen ( § 367 ABGB )&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind teilrechtsfähige Gebilde?&lt;/p&gt;&lt;p&gt;Beispiele?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ihnen werden Kraft Gesetzes nur &lt;strong&gt;einzelne Rechte &lt;/strong&gt;und &lt;strong&gt;Pflichten&lt;/strong&gt; zugewiesen.&lt;/li&gt;&lt;li&gt;Beispiele: Bundesschulen, Geologische Bundesanstalt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Rechtsgrundlagen sind Relevant für die gesetzliche Vertretung bei &lt;strong&gt;altersbedingter &lt;/strong&gt;Geschäftsunfähigkeit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;§§ &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/158" rel="noopener noreferrer" target="_blank"&gt;158&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;167&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/177" rel="noopener noreferrer" target="_blank"&gt;177&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/178" rel="noopener noreferrer" target="_blank"&gt;178&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/181" rel="noopener noreferrer" target="_blank"&gt;181 &lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;ABGB&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 4 weiteren (neben den 4 Haupteinteilungen) Unterscheidungen von Sachen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Einfache&lt;/strong&gt; und &lt;strong&gt;zusammengsetzte &lt;/strong&gt;Sachen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Einzel&lt;/strong&gt; und &lt;strong&gt;Gesamtsachen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bzw. &lt;strong&gt;vertretbare &lt;/strong&gt;(Unterscheidung nur durch Zahl oder Gewicht, z.B.: Zucker) und &lt;strong&gt;unvertretbare &lt;/strong&gt;(Unterscheidung durch individuelle Merkmale: handgefertigte Maßkleidung, Tischlerei-Einrichtung) Sachen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Teilbare &lt;/strong&gt;und &lt;strong&gt;unteilbare &lt;/strong&gt;Sachen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Herrenlose&lt;/strong&gt; und im &lt;strong&gt;Eigentum eines&lt;/strong&gt; &lt;strong&gt;Rechtssubjekt &lt;/strong&gt;stehende Sachen (&lt;strong&gt;privat &lt;/strong&gt;oder &lt;strong&gt;öffentlich&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Woraus leiten sich Ansprüche einer vertraglichen Vereinbarung ab? &lt;/p&gt;</t>
   </si>
   <si>
@@ -121,12 +163,6 @@
     <t>&lt;p&gt;Die Gesamtheit aller Normen, die das menschliche Zusammenleben regeln&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was sind die 4 weiteren (neben den 4 Haupteinteilungen) Unterscheidungen von Sachen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Einfache&lt;/strong&gt; und &lt;strong&gt;zusammengsetzte &lt;/strong&gt;Sachen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Einzel&lt;/strong&gt; und &lt;strong&gt;Gesamtsachen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bzw. &lt;strong&gt;vertretbare &lt;/strong&gt;(Unterscheidung nur durch Zahl oder Gewicht, z.B.: Zucker) und &lt;strong&gt;unvertretbare &lt;/strong&gt;(Unterscheidung durch individuelle Merkmale: handgefertigte Maßkleidung, Tischlerei-Einrichtung) Sachen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Teilbare &lt;/strong&gt;und unteilbare Sachen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Herrenlose&lt;/strong&gt; und im &lt;strong&gt;Eigentum eines&lt;/strong&gt; &lt;strong&gt;Rechtssubjekt &lt;/strong&gt;stehende Sachen (&lt;strong&gt;privat &lt;/strong&gt;oder &lt;strong&gt;öffentlich&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Was sind die 4 Haupteinteilungen von Sachen?&lt;/p&gt;</t>
   </si>
   <si>
@@ -187,12 +223,6 @@
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Juristische Person entsteht erst durch einen &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(226, 148, 20);"&gt;staatlichen&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(226, 148, 20);"&gt; &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(226, 148, 20);"&gt;konstitutiven Gründungsakt&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;. Die Verleihung der Konzession &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;muss&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; stattfinden, wenn die gesetzlichen Voraussetzungen erfüllt sind.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entstehung mit &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;konstitutiver Eintragung &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;im &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Firmenbuch &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;abgeschlossen.&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Was ist die Wissenszurechnung bei juristischen Personen?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Was sind die Rechtsgrundlagen? &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Wissen der &lt;strong&gt;handelnden &lt;/strong&gt;Person wird an die &lt;strong&gt;vertretene juristische &lt;/strong&gt;Person zugerechnet.&lt;/p&gt;&lt;p&gt;Relevant für &lt;strong&gt;Irrtumsanfechtung &lt;/strong&gt;( § 871 ABGB ) und &lt;strong&gt;gutgläubigen Erwerb&lt;/strong&gt; von Sachen ( § 367 )&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wie funktioniert die Deliktsfähigkeit einer juristischen Person?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wie funktioniert die Haftung?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die Rechtsgrundlagen? &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -247,12 +277,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Durch &lt;strong&gt;staatlichen Gründungsakt &lt;/strong&gt;(eigene Sondergesetze)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was sind teilrechtsfähige Geblide?&lt;/p&gt;&lt;p&gt;Beispiele?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ihnen werden Kraft Gesetzes nur &lt;strong&gt;einzelne Rechte &lt;/strong&gt;und &lt;strong&gt;Pflichten&lt;/strong&gt; zugewiesen.&lt;/li&gt;&lt;li&gt;Beispiele: Bundesschulen, Geologische Bundesanstalt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Welche vollrechtsfähigen Juristischen Personen gibt es?&lt;/p&gt;</t>
   </si>
   <si>
@@ -331,12 +355,6 @@
     <t>&lt;p&gt;Müssen schriftlich anerkannt werden &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/168" rel="noopener noreferrer" target="_blank"&gt;§ 168 ABGB&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Welche Rechtsgrundlagen sind Relevant für die gesetzliche Vertretung bei altersbedingter Geschäftsunfähigkeit?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;§§ &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/158" rel="noopener noreferrer" target="_blank"&gt;158&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;167&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/177" rel="noopener noreferrer" target="_blank"&gt;177&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/178" rel="noopener noreferrer" target="_blank"&gt;178&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/181" rel="noopener noreferrer" target="_blank"&gt;181 &lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;ABGB&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Welche zwei Arten der Geschäftsunfähigkeit gibt es? &lt;/p&gt;&lt;p&gt;Was sind die Folgen? &lt;/p&gt;</t>
   </si>
   <si>
@@ -427,12 +445,6 @@
     <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/oghg/paragraf/8" rel="noopener noreferrer" target="_blank"&gt;§ 8 OGHG&lt;/a&gt;: &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entscheidungen eines verstärkten Senats &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Richterrecht: Was ist Case Law?&lt;/p&gt;&lt;p&gt;Wie verhält es sich in den USA und in Österreich?&lt;/p&gt;&lt;p&gt;Was ist die Rechtsgrundlage in Ö? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Entscheidung eines Falles schaft für zukünftige Fälle &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;gültiges Recht&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;USA: Kommt oft zur Anwendung.&lt;/li&gt;&lt;li&gt;Ö: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Richterrecht ist &lt;strong&gt;keine Rechts&lt;/strong&gt;(entstehungs)&lt;strong&gt;quelle&lt;/strong&gt; (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/12" rel="noopener noreferrer" target="_blank"&gt;§ 12 ABGB&lt;/a&gt;), Gerichte wenden Recht an und schaffen es nicht.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Was ist das Gewohnheitsrecht bzw. wodurch entsteht es?&lt;/p&gt;&lt;p&gt;Ist es ein gesetztes Recht?&lt;/p&gt;</t>
   </si>
   <si>
@@ -583,22 +595,10 @@
     <t>&lt;p&gt;Eine rechtlich erhebliche Zeitspanne&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was ist die Beeinflussing wider Treu und Glauben? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gelingt es jemandem, dem die Bedingung zum &lt;strong&gt;Nachteil &lt;/strong&gt;gereicht, sie zu &lt;strong&gt;vereiteln&lt;/strong&gt;, gilt die Bedingung als &lt;strong&gt;eingetreten&lt;/strong&gt;. &lt;/li&gt;&lt;li&gt;Gelingt es jemandem, dem die Bedingung zum &lt;strong&gt;Vorteil &lt;/strong&gt;gereicht, die Bedingung wider Treu und Glauben &lt;strong&gt;herbeizuführen&lt;/strong&gt;, gilt die Bedingung als &lt;strong&gt;ausgefallen&lt;/strong&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Beispiel: X verspricht Y ihm sein Auto zu schenken, wenn die nächste Reperatur ansteht. Y sapotiert das Auto von X. Die Bedingung wurde wider Treu und Glauben herbeigeführt und gilt daher als ausgefallen und die Schenkung tritt nicht in kraft.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Was ist die Rechtsgrundlage für unmögliche aufschiebende und unmögliche auflösende Bedingungen? &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/698" rel="noopener noreferrer" target="_blank" style="color: black; background-color: rgb(40, 45, 88);"&gt;§ 698 ABGB&lt;/a&gt;, für letzten Willen auch &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/898" rel="noopener noreferrer" target="_blank"&gt;§ 898 ABGB&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wann ist eine Bedingung unmöglich?&lt;/p&gt;&lt;p&gt;Was ist unmöglich allgemein definiert?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eine Bedingung ist &lt;strong&gt;unmöglich&lt;/strong&gt;, wenn sie aus &lt;strong&gt;tatsächlichen&lt;/strong&gt; oder &lt;strong&gt;rechtlichen Gründen &lt;/strong&gt;nicht eintreten kann.&lt;/li&gt;&lt;li&gt;Unmöglich ist, was &lt;strong&gt;objektiv gesehen&lt;/strong&gt; und &lt;strong&gt;nicht &lt;/strong&gt;nur &lt;strong&gt;vorrübergehend &lt;/strong&gt;sondern &lt;strong&gt;dauerhaft&lt;/strong&gt; &lt;strong&gt;unmöglich&lt;/strong&gt; ist und niemand erfüllen kann.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Welche Bedingungen gelten nicht?&lt;/p&gt;&lt;p&gt;Was ist die Rechtsgrundlage?&lt;/p&gt;</t>
